--- a/doc/ue_player_localplayer_connection.xlsx
+++ b/doc/ue_player_localplayer_connection.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D8C152-527F-40C9-9E0C-F9EFE8937F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="3" r:id="rId1"/>
@@ -49,309 +48,310 @@
     <t>UPROPERTY()</t>
   </si>
   <si>
+    <t>/** Class to manage online services */</t>
+  </si>
+  <si>
+    <t>class UOnlineSession* OnlineSession;</t>
+  </si>
+  <si>
+    <t>其次，只有在非Server模式下才会创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UGameEngine::Init(IEngineLoop* InEngineLoop)</t>
+  </si>
+  <si>
+    <t>// Attach the viewport client to a new viewport.</t>
+  </si>
+  <si>
+    <t>if(ViewportClient)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// This must be created before any gameplay code adds widgets</t>
+  </si>
+  <si>
+    <t>bool bWindowAlreadyExists = GameViewportWindow.IsValid();</t>
+  </si>
+  <si>
+    <t>if (!bWindowAlreadyExists)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogEngine, Log, TEXT("GameWindow did not exist.  Was created"));</t>
+  </si>
+  <si>
+    <t>GameViewportWindow = CreateGameWindow();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>CreateGameViewport( ViewportClient );</t>
+  </si>
+  <si>
+    <t>if( !bWindowAlreadyExists )</t>
+  </si>
+  <si>
+    <t>SwitchGameWindowToUseGameViewport();</t>
+  </si>
+  <si>
+    <t>FString Error;</t>
+  </si>
+  <si>
+    <t>if(ViewportClient-&gt;SetupInitialLocalPlayer(Error) == NULL)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogEngine, Fatal,TEXT("%s"),*Error);</t>
+  </si>
+  <si>
+    <t>UGameViewportClient::OnViewportCreated().Broadcast();</t>
+  </si>
+  <si>
+    <t>// Initialize the viewport client.</t>
+  </si>
+  <si>
+    <t>UGameViewportClient* ViewportClient = NULL;</t>
+  </si>
+  <si>
+    <t>if(GIsClient)</t>
+  </si>
+  <si>
+    <t>ViewportClient = NewObject&lt;UGameViewportClient&gt;(this, GameViewportClientClass);</t>
+  </si>
+  <si>
+    <t>ViewportClient-&gt;Init(*GameInstance-&gt;GetWorldContext(), GameInstance);</t>
+  </si>
+  <si>
+    <t>GameViewport = ViewportClient;</t>
+  </si>
+  <si>
+    <t>GameInstance-&gt;GetWorldContext()-&gt;GameViewport = ViewportClient;</t>
+  </si>
+  <si>
+    <t>只有Client下才会创建GameViewPortClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！非Server模式下才会创建LocalPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个场景切换加载时，根据LocalPlayer创建自己的PlayerController-&gt;Pawn这一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>GIsClient</t>
+  </si>
+  <si>
+    <t>= false;</t>
+  </si>
+  <si>
+    <t>/* Whether engine was launched as a client */</t>
+  </si>
+  <si>
+    <t>GIsServer</t>
+  </si>
+  <si>
+    <t>/* Whether engine was launched as a server, true if GIsClient */</t>
+  </si>
+  <si>
+    <t>注意这两个宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 GuardedMain( const TCHAR* CmdLine )</t>
+  </si>
+  <si>
+    <t>int32 ErrorLevel = EnginePreInit( CmdLine );</t>
+  </si>
+  <si>
+    <t>int32 EnginePreInit( const TCHAR* CmdLine )</t>
+  </si>
+  <si>
+    <t>int32 ErrorLevel = GEngineLoop.PreInit( CmdLine );</t>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInit(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>const int32 rv1 = PreInitPreStartupScreen(CmdLine);</t>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>默认设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIsClient = true;</t>
+  </si>
+  <si>
+    <t>GIsServer = false;</t>
+  </si>
+  <si>
+    <t>如果是DS，则设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (IsRunningDedicatedServer())</t>
+  </si>
+  <si>
+    <t>GIsClient = false;</t>
+  </si>
+  <si>
+    <t>GIsServer = true;</t>
+  </si>
+  <si>
+    <t>这两个宏设置的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用宏UE_SERVER区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(Within=Engine, config=Engine, transient)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API ULocalPlayer : public UPlayer</t>
+  </si>
+  <si>
+    <t>本身的LocalPlayer就是Uplayer的一种子类，其存在于GameInstance，也只有非Server模式会用到（Server模式下通过Uconnect，也是Uplayer的一个子类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(MinimalAPI, transient, config=Engine)</t>
+  </si>
+  <si>
+    <t>class UPlayer : public UObject, public FExec</t>
+  </si>
+  <si>
+    <t>一个本地的Camera或者是远程的一个Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** The actor this player controls. */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(transient)</t>
+  </si>
+  <si>
+    <t>class APlayerController* PlayerController;</t>
+  </si>
+  <si>
+    <t>UCLASS(customConstructor, Abstract, MinimalAPI, transient, config=Engine)</t>
+  </si>
+  <si>
+    <t>class UNetConnection : public UPlayer</t>
+  </si>
+  <si>
+    <t>一个远程的连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用在服务器模式下，创建里面对应的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::NotifyControlMessage(UNetConnection* Connection, uint8 MessageType, class FInBunch&amp; Bunch)</t>
+  </si>
+  <si>
+    <t>case NMT_Join:</t>
+  </si>
+  <si>
+    <t>创建Connection对应的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection-&gt;PlayerController = SpawnPlayActor( Connection, ROLE_AutonomousProxy, InURL, Connection-&gt;PlayerId, ErrorMsg );</t>
+  </si>
+  <si>
+    <t>在Server模式下，等于从Pawn找到PlayerController，然后可以找到Connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动时，在GameInstance里面创建LocalPlayer，后续每次切换场景时，根据LocalPlayer创建PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据连接的Connection，创建PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！联网的客户端，怎么办？？？其肯定也是需要等服务器返回在创建的PlayerController的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承自Uplayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？联网的Client，怎么搞？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameInstance还是有LocalPlayer的，但是联网的场景肯定不需要创建默认的playercontroller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UActorChannel::ReceivedBunch( FInBunch &amp; Bunch )</t>
+  </si>
+  <si>
+    <t>ProcessBunch(Bunch);</t>
+  </si>
+  <si>
+    <t>void UActorChannel::ProcessBunch( FInBunch &amp; Bunch )</t>
+  </si>
+  <si>
+    <t>NotifyActorChannelOpen(Actor, Bunch);</t>
+  </si>
+  <si>
+    <t>void UActorChannel::NotifyActorChannelOpen(AActor* InActor, FInBunch&amp; InBunch)</t>
+  </si>
+  <si>
+    <t>Actor-&gt;OnActorChannelOpen(InBunch, Connection);</t>
+  </si>
+  <si>
+    <t>void APlayerController::OnActorChannelOpen(FInBunch&amp; InBunch, UNetConnection* Connection)</t>
+  </si>
+  <si>
+    <t>void UNetConnection::HandleClientPlayer( APlayerController *PC, UNetConnection* NetConnection )</t>
+  </si>
+  <si>
+    <t>该流程会释放LocalPlayer身上的PlayerController；重新和新的PlayerController绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TArray&lt;ULocalPlayer*&gt; LocalPlayers;</t>
-  </si>
-  <si>
-    <t>/** Class to manage online services */</t>
-  </si>
-  <si>
-    <t>class UOnlineSession* OnlineSession;</t>
-  </si>
-  <si>
-    <t>其次，只有在非Server模式下才会创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UGameEngine::Init(IEngineLoop* InEngineLoop)</t>
-  </si>
-  <si>
-    <t>// Attach the viewport client to a new viewport.</t>
-  </si>
-  <si>
-    <t>if(ViewportClient)</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>// This must be created before any gameplay code adds widgets</t>
-  </si>
-  <si>
-    <t>bool bWindowAlreadyExists = GameViewportWindow.IsValid();</t>
-  </si>
-  <si>
-    <t>if (!bWindowAlreadyExists)</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogEngine, Log, TEXT("GameWindow did not exist.  Was created"));</t>
-  </si>
-  <si>
-    <t>GameViewportWindow = CreateGameWindow();</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>CreateGameViewport( ViewportClient );</t>
-  </si>
-  <si>
-    <t>if( !bWindowAlreadyExists )</t>
-  </si>
-  <si>
-    <t>SwitchGameWindowToUseGameViewport();</t>
-  </si>
-  <si>
-    <t>FString Error;</t>
-  </si>
-  <si>
-    <t>if(ViewportClient-&gt;SetupInitialLocalPlayer(Error) == NULL)</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogEngine, Fatal,TEXT("%s"),*Error);</t>
-  </si>
-  <si>
-    <t>UGameViewportClient::OnViewportCreated().Broadcast();</t>
-  </si>
-  <si>
-    <t>// Initialize the viewport client.</t>
-  </si>
-  <si>
-    <t>UGameViewportClient* ViewportClient = NULL;</t>
-  </si>
-  <si>
-    <t>if(GIsClient)</t>
-  </si>
-  <si>
-    <t>ViewportClient = NewObject&lt;UGameViewportClient&gt;(this, GameViewportClientClass);</t>
-  </si>
-  <si>
-    <t>ViewportClient-&gt;Init(*GameInstance-&gt;GetWorldContext(), GameInstance);</t>
-  </si>
-  <si>
-    <t>GameViewport = ViewportClient;</t>
-  </si>
-  <si>
-    <t>GameInstance-&gt;GetWorldContext()-&gt;GameViewport = ViewportClient;</t>
-  </si>
-  <si>
-    <t>只有Client下才会创建GameViewPortClient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！非Server模式下才会创建LocalPlayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个场景切换加载时，根据LocalPlayer创建自己的PlayerController-&gt;Pawn这一套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>GIsClient</t>
-  </si>
-  <si>
-    <t>= false;</t>
-  </si>
-  <si>
-    <t>/* Whether engine was launched as a client */</t>
-  </si>
-  <si>
-    <t>GIsServer</t>
-  </si>
-  <si>
-    <t>/* Whether engine was launched as a server, true if GIsClient */</t>
-  </si>
-  <si>
-    <t>注意这两个宏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 GuardedMain( const TCHAR* CmdLine )</t>
-  </si>
-  <si>
-    <t>int32 ErrorLevel = EnginePreInit( CmdLine );</t>
-  </si>
-  <si>
-    <t>int32 EnginePreInit( const TCHAR* CmdLine )</t>
-  </si>
-  <si>
-    <t>int32 ErrorLevel = GEngineLoop.PreInit( CmdLine );</t>
-  </si>
-  <si>
-    <t>int32 FEngineLoop::PreInit(const TCHAR* CmdLine)</t>
-  </si>
-  <si>
-    <t>const int32 rv1 = PreInitPreStartupScreen(CmdLine);</t>
-  </si>
-  <si>
-    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
-  </si>
-  <si>
-    <t>默认设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIsClient = true;</t>
-  </si>
-  <si>
-    <t>GIsServer = false;</t>
-  </si>
-  <si>
-    <t>如果是DS，则设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (IsRunningDedicatedServer())</t>
-  </si>
-  <si>
-    <t>GIsClient = false;</t>
-  </si>
-  <si>
-    <t>GIsServer = true;</t>
-  </si>
-  <si>
-    <t>这两个宏设置的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用宏UE_SERVER区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCLASS(Within=Engine, config=Engine, transient)</t>
-  </si>
-  <si>
-    <t>class ENGINE_API ULocalPlayer : public UPlayer</t>
-  </si>
-  <si>
-    <t>本身的LocalPlayer就是Uplayer的一种子类，其存在于GameInstance，也只有非Server模式会用到（Server模式下通过Uconnect，也是Uplayer的一个子类）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCLASS(MinimalAPI, transient, config=Engine)</t>
-  </si>
-  <si>
-    <t>class UPlayer : public UObject, public FExec</t>
-  </si>
-  <si>
-    <t>一个本地的Camera或者是远程的一个Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/** The actor this player controls. */</t>
-  </si>
-  <si>
-    <t>UPROPERTY(transient)</t>
-  </si>
-  <si>
-    <t>class APlayerController* PlayerController;</t>
-  </si>
-  <si>
-    <t>UCLASS(customConstructor, Abstract, MinimalAPI, transient, config=Engine)</t>
-  </si>
-  <si>
-    <t>class UNetConnection : public UPlayer</t>
-  </si>
-  <si>
-    <t>一个远程的连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用在服务器模式下，创建里面对应的PlayerController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::NotifyControlMessage(UNetConnection* Connection, uint8 MessageType, class FInBunch&amp; Bunch)</t>
-  </si>
-  <si>
-    <t>case NMT_Join:</t>
-  </si>
-  <si>
-    <t>创建Connection对应的PlayerController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connection-&gt;PlayerController = SpawnPlayActor( Connection, ROLE_AutonomousProxy, InURL, Connection-&gt;PlayerId, ErrorMsg );</t>
-  </si>
-  <si>
-    <t>在Server模式下，等于从Pawn找到PlayerController，然后可以找到Connection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client模式下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server模式下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动时，在GameInstance里面创建LocalPlayer，后续每次切换场景时，根据LocalPlayer创建PlayerController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据连接的Connection，创建PlayerController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！联网的客户端，怎么办？？？其肯定也是需要等服务器返回在创建的PlayerController的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继承自Uplayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？联网的Client，怎么搞？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameInstance还是有LocalPlayer的，但是联网的场景肯定不需要创建默认的playercontroller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UActorChannel::ReceivedBunch( FInBunch &amp; Bunch )</t>
-  </si>
-  <si>
-    <t>ProcessBunch(Bunch);</t>
-  </si>
-  <si>
-    <t>void UActorChannel::ProcessBunch( FInBunch &amp; Bunch )</t>
-  </si>
-  <si>
-    <t>NotifyActorChannelOpen(Actor, Bunch);</t>
-  </si>
-  <si>
-    <t>void UActorChannel::NotifyActorChannelOpen(AActor* InActor, FInBunch&amp; InBunch)</t>
-  </si>
-  <si>
-    <t>Actor-&gt;OnActorChannelOpen(InBunch, Connection);</t>
-  </si>
-  <si>
-    <t>void APlayerController::OnActorChannelOpen(FInBunch&amp; InBunch, UNetConnection* Connection)</t>
-  </si>
-  <si>
-    <t>void UNetConnection::HandleClientPlayer( APlayerController *PC, UNetConnection* NetConnection )</t>
-  </si>
-  <si>
-    <t>该流程会释放LocalPlayer身上的PlayerController；重新和新的PlayerController绑定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A082BFD0-15B4-4EEF-B877-001983A7BFE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -707,7 +707,7 @@
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
@@ -715,21 +715,21 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3"/>
       <c r="P4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -742,14 +742,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
@@ -760,12 +760,12 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -775,17 +775,17 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -795,31 +795,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -831,58 +831,58 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="T3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="U6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
@@ -890,21 +890,21 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
         <v>37</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>38</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>39</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" t="s">
         <v>41</v>
-      </c>
-      <c r="P14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
@@ -953,32 +953,32 @@
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="N20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
@@ -986,220 +986,220 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O24" s="3"/>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O25" s="3"/>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="Q28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="4:14" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EB8FE4-701B-4FFD-BBE8-FB97E9FD7ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1220,153 +1220,153 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
         <v>37</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>38</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>39</v>
-      </c>
-      <c r="U8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="R9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s">
         <v>41</v>
-      </c>
-      <c r="T9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="Q10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="R11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="S16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="18:27" x14ac:dyDescent="0.2">
       <c r="R17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="18:27" x14ac:dyDescent="0.2">
       <c r="S18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="18:27" x14ac:dyDescent="0.2">
       <c r="S19" s="3"/>
       <c r="T19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="18:27" x14ac:dyDescent="0.2">
       <c r="S20" s="3"/>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="18:27" x14ac:dyDescent="0.2">
       <c r="S21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="18:27" x14ac:dyDescent="0.2">
       <c r="T22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="18:27" x14ac:dyDescent="0.2">
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="18:27" x14ac:dyDescent="0.2">
       <c r="U24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="18:27" x14ac:dyDescent="0.2">
       <c r="AA25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
